--- a/biology/Zoologie/Ictonyx_libyca/Ictonyx_libyca.xlsx
+++ b/biology/Zoologie/Ictonyx_libyca/Ictonyx_libyca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ictonyx libycus · Zorille de Libye, Zorille du désert, Zorille du Sahara
 La Zorille de Libye ou Zorille du désert (Ictonyx libyca) est une espèce de la famille des mustélidés. On rencontre ce mammifère carnivore de taille moyenne essentiellement sur le pourtour du Sahara.
@@ -513,14 +525,16 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique : Ictonyx libyca  (Hemprich &amp; Ehrenberg, 1833) est le plus couramment admis[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique : Ictonyx libyca  (Hemprich &amp; Ehrenberg, 1833) est le plus couramment admis
 Synonymes :
-Ictonyx libycus (Hemprich and Ehrenberg, 1833), préféré par Catalogue of Life[2]
+Ictonyx libycus (Hemprich and Ehrenberg, 1833), préféré par Catalogue of Life
 Poecilictis libyca paramètre de Bioref « uBIO » non reconnu 
-Noms vulgaires (vulgarisation scientifique) :  Zorille de Libye[3],[4] (ou Zorilla de Libye[4]), Zorille du désert[3], Zorille du Sahara[3]. En anglais, Saharan Striped Polecat[5],[3],[2] (putois rayé du Sahara).
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : en français : belette d'Afrique du Nord[réf. souhaitée]; en anglais, Lybian striped polecat[3], North African banded weasel[3].</t>
+Noms vulgaires (vulgarisation scientifique) :  Zorille de Libye, (ou Zorilla de Libye), Zorille du désert, Zorille du Sahara. En anglais, Saharan Striped Polecat (putois rayé du Sahara).
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : en français : belette d'Afrique du Nord[réf. souhaitée]; en anglais, Lybian striped polecat, North African banded weasel.</t>
         </is>
       </c>
     </row>
@@ -548,7 +562,9 @@
           <t>Description de l'espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Zorille de Libye mesure 25 cm de long.
 </t>
@@ -579,7 +595,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce mammifère terrestre se nourrit de petit rongeurs (gerbilles, meriones, mulots), d'amphibiens, de petits oiseaux (cailles, perdrix, alouettes) et d'invertébrés (scorpions, coléoptères).
 </t>
@@ -610,7 +628,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce possède une large répartition en Afrique du Nord, y compris dans le Sahara. Du Maroc à la Tunisie vit la sous-espèce P.l.vaillanti, rarement observée à cause de ses mœurs nocturnes. Au Maroc, par exemple, cette zorille fréquente surtout les zones steppiques de l'Est du pays riches en végétation basse et denses comme les plaines des hauts plateaux. 
 </t>
@@ -641,9 +661,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2013)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 juin 2013) :
 sous-espèce Ictonyx libyca libyca
 sous-espèce Ictonyx libyca multivittata
 sous-espèce Ictonyx libyca oralis
